--- a/Plan/AUTOSAR_Plan_Team5_update1.xlsx
+++ b/Plan/AUTOSAR_Plan_Team5_update1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t xml:space="preserve">Process </t>
   </si>
@@ -177,8 +177,12 @@
 8/5/2017</t>
   </si>
   <si>
-    <t>Update 1
-Dated : 10/05/2017</t>
+    <t>Done
+13/5/2017</t>
+  </si>
+  <si>
+    <t>Update 2
+Dated : 16/05/2017</t>
   </si>
 </sst>
 </file>
@@ -393,7 +397,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A13:G27" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A13:G27"/>
+  <autoFilter ref="A13:G27">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="EA"/>
+        <filter val="EEP"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" name="S/N" dataDxfId="6"/>
     <tableColumn id="2" name="Process " dataDxfId="5"/>
@@ -696,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +753,7 @@
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -846,7 +857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -980,8 +991,8 @@
       <c r="F19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>49</v>
+      <c r="G19" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1026,8 +1037,8 @@
       <c r="F21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>6</v>
+      <c r="G21" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1145,7 +1156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>14</v>
       </c>
